--- a/test_cases/TC-01_.xlsx
+++ b/test_cases/TC-01_.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCE25D7-5C98-435F-8330-E0F9405FEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TC - Template" sheetId="1" r:id="rId4"/>
+    <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh8jLNirwlVBH9J54B2xNvmIa3L2w=="/>
@@ -134,17 +143,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Calibri"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Navigate to </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
       </rPr>
       <t>http://demo.guru99.com</t>
     </r>
@@ -195,101 +204,121 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,7 +326,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,7 +348,13 @@
     </fill>
   </fills>
   <borders count="22">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -333,8 +368,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -344,6 +381,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -358,14 +396,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -376,6 +418,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -384,9 +427,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -399,6 +444,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -413,6 +459,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -427,17 +474,20 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -449,69 +499,97 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -521,6 +599,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -535,177 +614,166 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -895,37 +963,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="11.57"/>
-    <col customWidth="1" min="6" max="6" width="2.57"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="18.29"/>
-    <col customWidth="1" min="9" max="9" width="14.57"/>
-    <col customWidth="1" min="10" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="14.57"/>
-    <col customWidth="1" min="14" max="14" width="18.29"/>
-    <col customWidth="1" min="15" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="2.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="15" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,482 +1005,482 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>2.1</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="23.25" customHeight="1">
-      <c r="A8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="D9" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="D10" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="25" t="s">
+    <row r="9" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="33" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="36" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="40" t="s">
+      <c r="J15" s="43"/>
+      <c r="K15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="40" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="G16" s="41" t="s">
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" customHeight="1">
+      <c r="G16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="40" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="G17" s="45" t="s">
+      <c r="E17" s="31"/>
+      <c r="G17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="47" t="s">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A18" s="26">
+        <v>1</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="49" t="s">
+      <c r="E18" s="31"/>
+      <c r="G18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50" t="s">
+      <c r="M18" s="27"/>
+      <c r="N18" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="46">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A19" s="26">
+        <v>2</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="G19" s="49" t="s">
+      <c r="E19" s="31"/>
+      <c r="G19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50" t="s">
+      <c r="M19" s="27"/>
+      <c r="N19" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A20" s="26">
+        <v>3</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20" s="49" t="s">
+      <c r="E20" s="31"/>
+      <c r="G20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50" t="s">
+      <c r="M20" s="27"/>
+      <c r="N20" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="46">
-        <v>4.0</v>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A21" s="26">
+        <v>4</v>
       </c>
       <c r="B21" s="48"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="48"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A22" s="26"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A23" s="26"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="G25" s="54" t="s">
+      <c r="E23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1">
+      <c r="G25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="54" t="s">
+      <c r="H25" s="31"/>
+      <c r="I25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="54" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="54" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="G26" s="55" t="s">
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" ht="25.5" customHeight="1">
+      <c r="G26" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="31"/>
+      <c r="I26" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="G27" s="55" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:14" ht="25.5" customHeight="1">
+      <c r="G27" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" ht="25.5" customHeight="1">
-      <c r="G28" s="56"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="G29" s="56"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" ht="25.5" customHeight="1">
-      <c r="G30" s="56"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:14" ht="25.5" customHeight="1">
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:14" ht="25.5" customHeight="1">
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:14" ht="25.5" customHeight="1">
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2381,18 +2451,26 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="D1:E1"/>
@@ -2409,35 +2487,25 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B18"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/test_cases/TC-01_.xlsx
+++ b/test_cases/TC-01_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCE25D7-5C98-435F-8330-E0F9405FEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD928C-B612-44E5-9CB7-578582CD625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail address validation. </t>
   </si>
   <si>
     <t>Mail = xx@xx.com</t>
@@ -195,17 +192,17 @@
     <t>DF-001: The system don`t remember the mail address</t>
   </si>
   <si>
-    <t>DF-001: The system don`t verify if the account are linked to an user</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DF-002: The system don`t verify if the account are linked to an user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,13 +310,6 @@
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -620,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -751,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1099,14 +1086,12 @@
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="18"/>
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25" customHeight="1">
@@ -1139,10 +1124,10 @@
     <row r="12" spans="1:23" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:23" ht="14.25" customHeight="1">
       <c r="A13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -1156,7 +1141,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
@@ -1168,88 +1153,88 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="G15" s="44" t="s">
         <v>24</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1">
       <c r="G16" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="43"/>
       <c r="K16" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="31"/>
       <c r="G17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="I17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="K17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="M17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1">
@@ -1257,34 +1242,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="31"/>
       <c r="G18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="I18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="K18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="27"/>
       <c r="N18" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
@@ -1292,34 +1277,34 @@
         <v>2</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="31"/>
       <c r="G19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="I19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="M19" s="27"/>
       <c r="N19" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1">
@@ -1327,34 +1312,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="31"/>
       <c r="G20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1">
@@ -1407,25 +1392,25 @@
     <row r="24" spans="1:14" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
       <c r="G25" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:14" ht="25.5" customHeight="1">
       <c r="G26" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="30" t="s">
@@ -1439,7 +1424,7 @@
     </row>
     <row r="27" spans="1:14" ht="25.5" customHeight="1">
       <c r="G27" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="30"/>
@@ -2506,6 +2491,6 @@
     <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>